--- a/usnmp/mib-2.xlsx
+++ b/usnmp/mib-2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pel08t99\OneDrive - Carillion Construction Ltd\snmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GIT\upylib\usnmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="253">
   <si>
     <t>iso</t>
   </si>
@@ -566,13 +566,229 @@
     <t>egpNeighAs</t>
   </si>
   <si>
-    <t>egpNeighInErrors</t>
+    <t>egpNighInMsgs</t>
+  </si>
+  <si>
+    <t>egpNeighInErrs</t>
+  </si>
+  <si>
+    <t>egpNeighOutMsgs</t>
+  </si>
+  <si>
+    <t>egpNeighOutErrs</t>
+  </si>
+  <si>
+    <t>egpNeighInErrMsgs</t>
+  </si>
+  <si>
+    <t>egpNeighStateUps</t>
+  </si>
+  <si>
+    <t>egpNeighStateDowns</t>
+  </si>
+  <si>
+    <t>egpNeighIntervalHello</t>
+  </si>
+  <si>
+    <t>egpNeighIntervalPoll</t>
+  </si>
+  <si>
+    <t>egpNeighMode</t>
+  </si>
+  <si>
+    <t>egpNeighEventTrigger</t>
+  </si>
+  <si>
+    <t>egpNeighOutErrMsgs</t>
+  </si>
+  <si>
+    <t>egpAS</t>
+  </si>
+  <si>
+    <t>snmpInPkts</t>
+  </si>
+  <si>
+    <t>snmpOutPkts</t>
+  </si>
+  <si>
+    <t>snmpInBadVersions</t>
+  </si>
+  <si>
+    <t>snmpInBadCommunityNames</t>
+  </si>
+  <si>
+    <t>snmpInBadCommunityUses</t>
+  </si>
+  <si>
+    <t>snmpInASNParseErrs</t>
+  </si>
+  <si>
+    <t>snmpInTooBigs</t>
+  </si>
+  <si>
+    <t>snmpInNoSuchNames</t>
+  </si>
+  <si>
+    <t>snmpInBadValues</t>
+  </si>
+  <si>
+    <t>snmpInReadOnlys</t>
+  </si>
+  <si>
+    <t>snmpInGenErrs</t>
+  </si>
+  <si>
+    <t>snmpInTotalReqVars</t>
+  </si>
+  <si>
+    <t>snmpInTotalSetVars</t>
+  </si>
+  <si>
+    <t>snmpInGetRequests</t>
+  </si>
+  <si>
+    <t>snmpInGetNexts</t>
+  </si>
+  <si>
+    <t>snmpInSetRequests</t>
+  </si>
+  <si>
+    <t>snmpInGetResponses</t>
+  </si>
+  <si>
+    <t>snmpInTraps</t>
+  </si>
+  <si>
+    <t>snmpOutTooBigs</t>
+  </si>
+  <si>
+    <t>snmpOutNoSuchNames</t>
+  </si>
+  <si>
+    <t>snmpOutBadValues</t>
+  </si>
+  <si>
+    <t>snmpOutGenErrs</t>
+  </si>
+  <si>
+    <t>snmpOutGetRequests</t>
+  </si>
+  <si>
+    <t>snmpOutGetNexts</t>
+  </si>
+  <si>
+    <t>snmpOutSetRequests</t>
+  </si>
+  <si>
+    <t>snmpOutGetResponses</t>
+  </si>
+  <si>
+    <t>snmpOutTraps</t>
+  </si>
+  <si>
+    <t>snmpEnableAuthenTraps</t>
+  </si>
+  <si>
+    <t>snmpSilentDrops</t>
+  </si>
+  <si>
+    <t>snmpProxyDrops</t>
+  </si>
+  <si>
+    <t>hosts</t>
+  </si>
+  <si>
+    <t>hrSystem</t>
+  </si>
+  <si>
+    <t>hrStorage</t>
+  </si>
+  <si>
+    <t>hrDevice</t>
+  </si>
+  <si>
+    <t>hrSWRun</t>
+  </si>
+  <si>
+    <t>hrSWRunPerf</t>
+  </si>
+  <si>
+    <t>hrSWInstalled</t>
+  </si>
+  <si>
+    <t>hrMIBAdminInfo</t>
+  </si>
+  <si>
+    <t>hrSystemUptime</t>
+  </si>
+  <si>
+    <t>hrSystemDate</t>
+  </si>
+  <si>
+    <t>hrSystemInitialLoadDevice</t>
+  </si>
+  <si>
+    <t>hrSystemInitialLoadParameters</t>
+  </si>
+  <si>
+    <t>hrSystemNumUsers</t>
+  </si>
+  <si>
+    <t>hrSystemProcesses</t>
+  </si>
+  <si>
+    <t>hrSystemMaxProcesses</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>hrMemorySize</t>
+  </si>
+  <si>
+    <t>hrStorageTable</t>
+  </si>
+  <si>
+    <t>hrStorageEntry</t>
+  </si>
+  <si>
+    <t>hrStorageIndex</t>
+  </si>
+  <si>
+    <t>hrStorageType</t>
+  </si>
+  <si>
+    <t>hrStorageDescr</t>
+  </si>
+  <si>
+    <t>hrStorageAllocationUnits</t>
+  </si>
+  <si>
+    <t>hrStorageSize</t>
+  </si>
+  <si>
+    <t>hrStorageUsed</t>
+  </si>
+  <si>
+    <t>hrStorageAllocationFailures</t>
+  </si>
+  <si>
+    <t>hrDeviceTable</t>
+  </si>
+  <si>
+    <t>hrDeviceEntry</t>
+  </si>
+  <si>
+    <t>hrDeviceIndex</t>
+  </si>
+  <si>
+    <t>hrDeviceType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,6 +916,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -735,6 +968,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -887,3347 +1137,5870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q168"/>
+  <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="O165" sqref="O165"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="2.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="2.73046875" style="1" customWidth="1"/>
+    <col min="10" max="13" width="2.73046875" customWidth="1"/>
+    <col min="15" max="15" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
       <c r="O1" t="s">
         <v>34</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <f>LEN(B2)</f>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
       <c r="O2" t="s">
         <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">LEN(B3)</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
         <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
       <c r="O4" t="s">
         <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
       <c r="O5" t="s">
         <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
       <c r="O6" t="s">
         <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H7" s="1">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>8</v>
       </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
       <c r="O7" t="s">
         <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
       <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
         <v>22</v>
       </c>
-      <c r="O8" t="s">
-        <v>19</v>
-      </c>
       <c r="P8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
       <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
         <v>23</v>
       </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
       <c r="P9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
       <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
         <v>25</v>
       </c>
-      <c r="O10" t="s">
-        <v>19</v>
-      </c>
       <c r="P10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="M11" t="s">
-        <v>18</v>
-      </c>
       <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
         <v>22</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>27</v>
       </c>
-      <c r="P11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="M12" t="s">
-        <v>18</v>
-      </c>
       <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
         <v>22</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>27</v>
       </c>
-      <c r="P12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6</v>
       </c>
-      <c r="M13" t="s">
-        <v>18</v>
-      </c>
       <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
         <v>22</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>27</v>
       </c>
-      <c r="P13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>7</v>
       </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
       <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
         <v>31</v>
       </c>
-      <c r="O14" t="s">
-        <v>19</v>
-      </c>
       <c r="P14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>8</v>
       </c>
-      <c r="N15" t="s">
-        <v>34</v>
-      </c>
       <c r="O15" t="s">
         <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
       <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
         <v>31</v>
       </c>
-      <c r="O16" t="s">
-        <v>19</v>
-      </c>
       <c r="P16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="N17" t="s">
-        <v>34</v>
-      </c>
       <c r="O17" t="s">
         <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>8</v>
       </c>
-      <c r="N18" t="s">
-        <v>34</v>
-      </c>
       <c r="O18" t="s">
         <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
-        <v>18</v>
-      </c>
       <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
         <v>31</v>
       </c>
-      <c r="O19" t="s">
-        <v>19</v>
-      </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2</v>
       </c>
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
       <c r="N20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
         <v>22</v>
       </c>
-      <c r="O20" t="s">
-        <v>19</v>
-      </c>
       <c r="P20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="M21" t="s">
-        <v>18</v>
-      </c>
       <c r="N21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s">
         <v>31</v>
       </c>
-      <c r="O21" t="s">
-        <v>19</v>
-      </c>
       <c r="P21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4</v>
       </c>
-      <c r="M22" t="s">
-        <v>18</v>
-      </c>
       <c r="N22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" t="s">
         <v>31</v>
       </c>
-      <c r="O22" t="s">
-        <v>19</v>
-      </c>
       <c r="P22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5</v>
       </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
       <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" t="s">
         <v>58</v>
       </c>
-      <c r="O23" t="s">
-        <v>19</v>
-      </c>
       <c r="P23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>6</v>
       </c>
-      <c r="M24" t="s">
-        <v>18</v>
-      </c>
       <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" t="s">
         <v>22</v>
       </c>
-      <c r="O24" t="s">
-        <v>19</v>
-      </c>
       <c r="P24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>7</v>
       </c>
-      <c r="M25" t="s">
-        <v>18</v>
-      </c>
       <c r="N25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" t="s">
         <v>31</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>27</v>
       </c>
-      <c r="P25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="Q25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>8</v>
       </c>
-      <c r="M26" t="s">
-        <v>18</v>
-      </c>
       <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
         <v>31</v>
       </c>
-      <c r="O26" t="s">
-        <v>19</v>
-      </c>
       <c r="P26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>9</v>
       </c>
-      <c r="M27" t="s">
-        <v>18</v>
-      </c>
       <c r="N27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" t="s">
         <v>25</v>
       </c>
-      <c r="O27" t="s">
-        <v>19</v>
-      </c>
       <c r="P27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>10</v>
       </c>
-      <c r="M28" t="s">
-        <v>18</v>
-      </c>
       <c r="N28" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>11</v>
       </c>
-      <c r="M29" t="s">
-        <v>18</v>
-      </c>
       <c r="N29" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O29" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>12</v>
       </c>
-      <c r="M30" t="s">
-        <v>18</v>
-      </c>
       <c r="N30" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O30" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>13</v>
       </c>
-      <c r="M31" t="s">
-        <v>18</v>
-      </c>
       <c r="N31" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O31" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>14</v>
       </c>
-      <c r="M32" t="s">
-        <v>18</v>
-      </c>
       <c r="N32" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O32" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>15</v>
       </c>
-      <c r="M33" t="s">
-        <v>18</v>
-      </c>
       <c r="N33" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O33" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>16</v>
       </c>
-      <c r="M34" t="s">
-        <v>18</v>
-      </c>
       <c r="N34" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O34" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>17</v>
       </c>
-      <c r="M35" t="s">
-        <v>18</v>
-      </c>
       <c r="N35" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O35" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="K36">
-        <v>18</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="L36">
         <v>18</v>
       </c>
       <c r="N36" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O36" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="K37">
-        <v>19</v>
-      </c>
-      <c r="M37" t="s">
-        <v>18</v>
+      <c r="L37">
+        <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O37" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="K38">
-        <v>20</v>
-      </c>
-      <c r="M38" t="s">
-        <v>18</v>
+      <c r="L38">
+        <v>20</v>
       </c>
       <c r="N38" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O38" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>21</v>
       </c>
-      <c r="M39" t="s">
-        <v>18</v>
-      </c>
       <c r="N39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" t="s">
         <v>58</v>
       </c>
-      <c r="O39" t="s">
-        <v>19</v>
-      </c>
       <c r="P39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>22</v>
       </c>
-      <c r="M40" t="s">
-        <v>18</v>
-      </c>
       <c r="N40" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" t="s">
         <v>23</v>
       </c>
-      <c r="O40" t="s">
-        <v>19</v>
-      </c>
       <c r="P40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>3</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>8</v>
       </c>
-      <c r="N41" t="s">
-        <v>34</v>
-      </c>
       <c r="O41" t="s">
         <v>34</v>
       </c>
       <c r="P41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>8</v>
       </c>
-      <c r="N42" t="s">
-        <v>34</v>
-      </c>
       <c r="O42" t="s">
         <v>34</v>
       </c>
       <c r="P42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
         <v>61</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>1</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>8</v>
       </c>
-      <c r="N43" t="s">
-        <v>34</v>
-      </c>
       <c r="O43" t="s">
         <v>34</v>
       </c>
       <c r="P43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
         <v>62</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>1</v>
       </c>
-      <c r="M44" t="s">
-        <v>18</v>
-      </c>
       <c r="N44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O44" t="s">
         <v>31</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>27</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>63</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
         <v>64</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>2</v>
       </c>
-      <c r="M45" t="s">
-        <v>18</v>
-      </c>
       <c r="N45" t="s">
+        <v>18</v>
+      </c>
+      <c r="O45" t="s">
         <v>22</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>27</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
         <v>65</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>3</v>
       </c>
-      <c r="M46" t="s">
-        <v>18</v>
-      </c>
       <c r="N46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O46" t="s">
         <v>89</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>27</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>63</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>4</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>8</v>
       </c>
-      <c r="N47" t="s">
-        <v>34</v>
-      </c>
       <c r="O47" t="s">
         <v>34</v>
       </c>
       <c r="P47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
         <v>67</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1</v>
       </c>
-      <c r="M48" t="s">
-        <v>18</v>
-      </c>
       <c r="N48" t="s">
+        <v>18</v>
+      </c>
+      <c r="O48" t="s">
         <v>31</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>27</v>
       </c>
-      <c r="P48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="Q48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
         <v>68</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>2</v>
       </c>
-      <c r="M49" t="s">
-        <v>18</v>
-      </c>
       <c r="N49" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49" t="s">
         <v>31</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>27</v>
       </c>
-      <c r="P49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="Q49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
         <v>69</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>3</v>
       </c>
-      <c r="M50" t="s">
-        <v>18</v>
-      </c>
       <c r="N50" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O50" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
         <v>70</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>4</v>
       </c>
-      <c r="M51" t="s">
-        <v>18</v>
-      </c>
       <c r="N51" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O51" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>5</v>
       </c>
-      <c r="M52" t="s">
-        <v>18</v>
-      </c>
       <c r="N52" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O52" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
         <v>72</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>6</v>
       </c>
-      <c r="M53" t="s">
-        <v>18</v>
-      </c>
       <c r="N53" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O53" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
         <v>73</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>7</v>
       </c>
-      <c r="M54" t="s">
-        <v>18</v>
-      </c>
       <c r="N54" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O54" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
         <v>74</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>8</v>
       </c>
-      <c r="M55" t="s">
-        <v>18</v>
-      </c>
       <c r="N55" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O55" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
         <v>75</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>9</v>
       </c>
-      <c r="M56" t="s">
-        <v>18</v>
-      </c>
       <c r="N56" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O56" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
         <v>76</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>10</v>
       </c>
-      <c r="M57" t="s">
-        <v>18</v>
-      </c>
       <c r="N57" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O57" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>11</v>
       </c>
-      <c r="M58" t="s">
-        <v>18</v>
-      </c>
       <c r="N58" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
         <v>78</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>12</v>
       </c>
-      <c r="M59" t="s">
-        <v>18</v>
-      </c>
       <c r="N59" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O59" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
         <v>79</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>13</v>
       </c>
-      <c r="M60" t="s">
-        <v>18</v>
-      </c>
       <c r="N60" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60" t="s">
         <v>31</v>
       </c>
-      <c r="O60" t="s">
-        <v>19</v>
-      </c>
       <c r="P60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>14</v>
       </c>
-      <c r="M61" t="s">
-        <v>18</v>
-      </c>
       <c r="N61" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O61" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
         <v>81</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>15</v>
       </c>
-      <c r="M62" t="s">
-        <v>18</v>
-      </c>
       <c r="N62" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O62" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
         <v>82</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>16</v>
       </c>
-      <c r="M63" t="s">
-        <v>18</v>
-      </c>
       <c r="N63" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O63" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
         <v>83</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>17</v>
       </c>
-      <c r="M64" t="s">
-        <v>18</v>
-      </c>
       <c r="N64" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O64" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
         <v>84</v>
       </c>
-      <c r="I65">
-        <v>18</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="J65">
         <v>18</v>
       </c>
       <c r="N65" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O65" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
         <v>85</v>
       </c>
-      <c r="I66">
-        <v>19</v>
-      </c>
-      <c r="M66" t="s">
-        <v>18</v>
+      <c r="J66">
+        <v>19</v>
       </c>
       <c r="N66" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O66" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">LEN(B67)</f>
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
         <v>86</v>
       </c>
-      <c r="I67">
-        <v>20</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="J67">
+        <v>20</v>
+      </c>
+      <c r="N67" t="s">
         <v>8</v>
       </c>
-      <c r="N67" t="s">
-        <v>34</v>
-      </c>
       <c r="O67" t="s">
         <v>34</v>
       </c>
       <c r="P67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
         <v>87</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>1</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>8</v>
       </c>
-      <c r="N68" t="s">
-        <v>34</v>
-      </c>
       <c r="O68" t="s">
         <v>34</v>
       </c>
       <c r="P68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
         <v>88</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>1</v>
       </c>
-      <c r="M69" t="s">
-        <v>18</v>
-      </c>
       <c r="N69" t="s">
+        <v>18</v>
+      </c>
+      <c r="O69" t="s">
         <v>89</v>
       </c>
-      <c r="O69" t="s">
-        <v>19</v>
-      </c>
       <c r="P69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q69" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
         <v>90</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>2</v>
       </c>
-      <c r="M70" t="s">
-        <v>18</v>
-      </c>
       <c r="N70" t="s">
+        <v>18</v>
+      </c>
+      <c r="O70" t="s">
         <v>31</v>
       </c>
-      <c r="O70" t="s">
-        <v>19</v>
-      </c>
       <c r="P70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
         <v>91</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>3</v>
       </c>
-      <c r="M71" t="s">
-        <v>18</v>
-      </c>
       <c r="N71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71" t="s">
         <v>89</v>
       </c>
-      <c r="O71" t="s">
-        <v>19</v>
-      </c>
       <c r="P71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
         <v>92</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>4</v>
       </c>
-      <c r="M72" t="s">
-        <v>18</v>
-      </c>
       <c r="N72" t="s">
+        <v>18</v>
+      </c>
+      <c r="O72" t="s">
         <v>31</v>
       </c>
-      <c r="O72" t="s">
-        <v>19</v>
-      </c>
       <c r="P72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
         <v>93</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>5</v>
       </c>
-      <c r="M73" t="s">
-        <v>18</v>
-      </c>
       <c r="N73" t="s">
+        <v>18</v>
+      </c>
+      <c r="O73" t="s">
         <v>31</v>
       </c>
-      <c r="O73" t="s">
-        <v>19</v>
-      </c>
       <c r="P73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
         <v>94</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>21</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>8</v>
       </c>
-      <c r="N74" t="s">
-        <v>34</v>
-      </c>
       <c r="O74" t="s">
         <v>34</v>
       </c>
       <c r="P74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
         <v>95</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>1</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>8</v>
       </c>
-      <c r="N75" t="s">
-        <v>34</v>
-      </c>
       <c r="O75" t="s">
         <v>34</v>
       </c>
       <c r="P75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
         <v>96</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>1</v>
       </c>
-      <c r="M76" t="s">
-        <v>18</v>
-      </c>
       <c r="N76" t="s">
+        <v>18</v>
+      </c>
+      <c r="O76" t="s">
         <v>89</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>27</v>
       </c>
-      <c r="P76" t="s">
-        <v>20</v>
-      </c>
       <c r="Q76" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
         <v>97</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>2</v>
       </c>
-      <c r="M77" t="s">
-        <v>18</v>
-      </c>
       <c r="N77" t="s">
+        <v>18</v>
+      </c>
+      <c r="O77" t="s">
         <v>31</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>27</v>
       </c>
-      <c r="P77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="Q77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
         <v>98</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>3</v>
       </c>
-      <c r="M78" t="s">
-        <v>18</v>
-      </c>
       <c r="N78" t="s">
+        <v>18</v>
+      </c>
+      <c r="O78" t="s">
         <v>31</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>27</v>
       </c>
-      <c r="P78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="Q78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
         <v>99</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>4</v>
       </c>
-      <c r="M79" t="s">
-        <v>18</v>
-      </c>
       <c r="N79" t="s">
+        <v>18</v>
+      </c>
+      <c r="O79" t="s">
         <v>31</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>27</v>
       </c>
-      <c r="P79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="Q79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
         <v>100</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>5</v>
       </c>
-      <c r="M80" t="s">
-        <v>18</v>
-      </c>
       <c r="N80" t="s">
+        <v>18</v>
+      </c>
+      <c r="O80" t="s">
         <v>31</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>27</v>
       </c>
-      <c r="P80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="Q80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
         <v>101</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>6</v>
       </c>
-      <c r="M81" t="s">
-        <v>18</v>
-      </c>
       <c r="N81" t="s">
+        <v>18</v>
+      </c>
+      <c r="O81" t="s">
         <v>31</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>27</v>
       </c>
-      <c r="P81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="Q81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
         <v>102</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>7</v>
       </c>
-      <c r="M82" t="s">
-        <v>18</v>
-      </c>
       <c r="N82" t="s">
+        <v>18</v>
+      </c>
+      <c r="O82" t="s">
         <v>89</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>27</v>
       </c>
-      <c r="P82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="Q82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
         <v>103</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>8</v>
       </c>
-      <c r="M83" t="s">
-        <v>18</v>
-      </c>
       <c r="N83" t="s">
+        <v>18</v>
+      </c>
+      <c r="O83" t="s">
         <v>31</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>27</v>
       </c>
-      <c r="P83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="Q83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
         <v>104</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>9</v>
       </c>
-      <c r="M84" t="s">
-        <v>18</v>
-      </c>
       <c r="N84" t="s">
+        <v>18</v>
+      </c>
+      <c r="O84" t="s">
         <v>31</v>
       </c>
-      <c r="O84" t="s">
-        <v>19</v>
-      </c>
       <c r="P84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
         <v>105</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>10</v>
       </c>
-      <c r="M85" t="s">
-        <v>18</v>
-      </c>
       <c r="N85" t="s">
+        <v>18</v>
+      </c>
+      <c r="O85" t="s">
         <v>31</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>27</v>
       </c>
-      <c r="P85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="Q85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
         <v>106</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>11</v>
       </c>
-      <c r="M86" t="s">
-        <v>18</v>
-      </c>
       <c r="N86" t="s">
+        <v>18</v>
+      </c>
+      <c r="O86" t="s">
         <v>89</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>27</v>
       </c>
-      <c r="P86" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="Q86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
         <v>107</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>12</v>
       </c>
-      <c r="M87" t="s">
-        <v>18</v>
-      </c>
       <c r="N87" t="s">
+        <v>18</v>
+      </c>
+      <c r="O87" t="s">
         <v>89</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>27</v>
       </c>
-      <c r="P87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="Q87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
         <v>108</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>13</v>
       </c>
-      <c r="M88" t="s">
-        <v>18</v>
-      </c>
       <c r="N88" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88" t="s">
         <v>23</v>
       </c>
-      <c r="O88" t="s">
-        <v>19</v>
-      </c>
       <c r="P88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
         <v>109</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>22</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>8</v>
       </c>
-      <c r="N89" t="s">
-        <v>34</v>
-      </c>
       <c r="O89" t="s">
         <v>34</v>
       </c>
       <c r="P89" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
         <v>110</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>1</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>8</v>
       </c>
-      <c r="N90" t="s">
-        <v>34</v>
-      </c>
       <c r="O90" t="s">
         <v>34</v>
       </c>
       <c r="P90" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
         <v>111</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>1</v>
       </c>
-      <c r="M91" t="s">
-        <v>18</v>
-      </c>
       <c r="N91" t="s">
+        <v>18</v>
+      </c>
+      <c r="O91" t="s">
         <v>31</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>27</v>
       </c>
-      <c r="P91" t="s">
-        <v>20</v>
-      </c>
       <c r="Q91" t="s">
+        <v>20</v>
+      </c>
+      <c r="R91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
         <v>112</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>2</v>
       </c>
-      <c r="M92" t="s">
-        <v>18</v>
-      </c>
       <c r="N92" t="s">
+        <v>18</v>
+      </c>
+      <c r="O92" t="s">
         <v>22</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>27</v>
       </c>
-      <c r="P92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="Q92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B93" t="s">
         <v>113</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>3</v>
       </c>
-      <c r="M93" t="s">
-        <v>18</v>
-      </c>
       <c r="N93" t="s">
+        <v>18</v>
+      </c>
+      <c r="O93" t="s">
         <v>89</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>27</v>
       </c>
-      <c r="P93" t="s">
-        <v>20</v>
-      </c>
       <c r="Q93" t="s">
+        <v>20</v>
+      </c>
+      <c r="R93" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
         <v>114</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>4</v>
       </c>
-      <c r="M94" t="s">
-        <v>18</v>
-      </c>
       <c r="N94" t="s">
+        <v>18</v>
+      </c>
+      <c r="O94" t="s">
         <v>31</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>27</v>
       </c>
-      <c r="P94" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="Q94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
         <v>115</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>23</v>
       </c>
-      <c r="M95" t="s">
-        <v>18</v>
-      </c>
       <c r="N95" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O95" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P95" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>5</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>8</v>
       </c>
-      <c r="N96" t="s">
-        <v>34</v>
-      </c>
       <c r="O96" t="s">
         <v>34</v>
       </c>
       <c r="P96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
         <v>116</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>1</v>
       </c>
-      <c r="M97" t="s">
-        <v>18</v>
-      </c>
       <c r="N97" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O97" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
         <v>117</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>2</v>
       </c>
-      <c r="M98" t="s">
-        <v>18</v>
-      </c>
       <c r="N98" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O98" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
         <v>118</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>3</v>
       </c>
-      <c r="M99" t="s">
-        <v>18</v>
-      </c>
       <c r="N99" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O99" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P99" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
         <v>119</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>4</v>
       </c>
-      <c r="M100" t="s">
-        <v>18</v>
-      </c>
       <c r="N100" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O100" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P100" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
         <v>120</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>5</v>
       </c>
-      <c r="M101" t="s">
-        <v>18</v>
-      </c>
       <c r="N101" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O101" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P101" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
         <v>121</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>6</v>
       </c>
-      <c r="M102" t="s">
-        <v>18</v>
-      </c>
       <c r="N102" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O102" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P102" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
         <v>122</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>7</v>
       </c>
-      <c r="M103" t="s">
-        <v>18</v>
-      </c>
       <c r="N103" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O103" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P103" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
         <v>124</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>8</v>
       </c>
-      <c r="M104" t="s">
-        <v>18</v>
-      </c>
       <c r="N104" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O104" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P104" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
         <v>123</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>9</v>
       </c>
-      <c r="M105" t="s">
-        <v>18</v>
-      </c>
       <c r="N105" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O105" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
         <v>125</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>10</v>
       </c>
-      <c r="M106" t="s">
-        <v>18</v>
-      </c>
       <c r="N106" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O106" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P106" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
         <v>126</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>11</v>
       </c>
-      <c r="M107" t="s">
-        <v>18</v>
-      </c>
       <c r="N107" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O107" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
         <v>127</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>12</v>
       </c>
-      <c r="M108" t="s">
-        <v>18</v>
-      </c>
       <c r="N108" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O108" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
         <v>128</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>13</v>
       </c>
-      <c r="M109" t="s">
-        <v>18</v>
-      </c>
       <c r="N109" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O109" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
         <v>129</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>14</v>
       </c>
-      <c r="M110" t="s">
-        <v>18</v>
-      </c>
       <c r="N110" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O110" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P110" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
         <v>130</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>15</v>
       </c>
-      <c r="M111" t="s">
-        <v>18</v>
-      </c>
       <c r="N111" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O111" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
         <v>131</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>16</v>
       </c>
-      <c r="M112" t="s">
-        <v>18</v>
-      </c>
       <c r="N112" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O112" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P112" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
         <v>132</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>17</v>
       </c>
-      <c r="M113" t="s">
-        <v>18</v>
-      </c>
       <c r="N113" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O113" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P113" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
         <v>133</v>
       </c>
-      <c r="I114">
-        <v>18</v>
-      </c>
-      <c r="M114" t="s">
+      <c r="J114">
         <v>18</v>
       </c>
       <c r="N114" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O114" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P114" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
         <v>134</v>
       </c>
-      <c r="I115">
-        <v>19</v>
-      </c>
-      <c r="M115" t="s">
-        <v>18</v>
+      <c r="J115">
+        <v>19</v>
       </c>
       <c r="N115" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O115" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P115" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
         <v>135</v>
       </c>
-      <c r="I116">
-        <v>20</v>
-      </c>
-      <c r="M116" t="s">
-        <v>18</v>
+      <c r="J116">
+        <v>20</v>
       </c>
       <c r="N116" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O116" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
         <v>136</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>21</v>
       </c>
-      <c r="M117" t="s">
-        <v>18</v>
-      </c>
       <c r="N117" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O117" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P117" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
         <v>137</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>22</v>
       </c>
-      <c r="M118" t="s">
-        <v>18</v>
-      </c>
       <c r="N118" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O118" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
         <v>138</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>23</v>
       </c>
-      <c r="M119" t="s">
-        <v>18</v>
-      </c>
       <c r="N119" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O119" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P119" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
         <v>139</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>24</v>
       </c>
-      <c r="M120" t="s">
-        <v>18</v>
-      </c>
       <c r="N120" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O120" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P120" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B121" t="s">
         <v>140</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>25</v>
       </c>
-      <c r="M121" t="s">
-        <v>18</v>
-      </c>
       <c r="N121" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O121" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P121" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
         <v>141</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>26</v>
       </c>
-      <c r="M122" t="s">
-        <v>18</v>
-      </c>
       <c r="N122" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O122" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P122" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
         <v>12</v>
       </c>
-      <c r="H123" s="1">
+      <c r="I123" s="1">
         <v>6</v>
       </c>
-      <c r="M123" t="s">
+      <c r="N123" t="s">
         <v>8</v>
       </c>
-      <c r="N123" t="s">
-        <v>34</v>
-      </c>
       <c r="O123" t="s">
         <v>34</v>
       </c>
       <c r="P123" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
         <v>142</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>1</v>
       </c>
-      <c r="M124" t="s">
-        <v>18</v>
-      </c>
       <c r="N124" t="s">
+        <v>18</v>
+      </c>
+      <c r="O124" t="s">
         <v>31</v>
       </c>
-      <c r="O124" t="s">
-        <v>19</v>
-      </c>
       <c r="P124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
         <v>143</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>2</v>
       </c>
-      <c r="M125" t="s">
-        <v>18</v>
-      </c>
       <c r="N125" t="s">
+        <v>18</v>
+      </c>
+      <c r="O125" t="s">
         <v>31</v>
       </c>
-      <c r="O125" t="s">
-        <v>19</v>
-      </c>
       <c r="P125" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
         <v>144</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>3</v>
       </c>
-      <c r="M126" t="s">
-        <v>18</v>
-      </c>
       <c r="N126" t="s">
+        <v>18</v>
+      </c>
+      <c r="O126" t="s">
         <v>31</v>
       </c>
-      <c r="O126" t="s">
-        <v>19</v>
-      </c>
       <c r="P126" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
         <v>145</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>4</v>
       </c>
-      <c r="M127" t="s">
-        <v>18</v>
-      </c>
       <c r="N127" t="s">
+        <v>18</v>
+      </c>
+      <c r="O127" t="s">
         <v>31</v>
       </c>
-      <c r="O127" t="s">
-        <v>19</v>
-      </c>
       <c r="P127" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
         <v>146</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>5</v>
       </c>
-      <c r="M128" t="s">
-        <v>18</v>
-      </c>
       <c r="N128" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O128" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P128" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
         <v>147</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>6</v>
       </c>
-      <c r="M129" t="s">
-        <v>18</v>
-      </c>
       <c r="N129" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O129" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P129" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B130" t="s">
         <v>148</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>7</v>
       </c>
-      <c r="M130" t="s">
-        <v>18</v>
-      </c>
       <c r="N130" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O130" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P130" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <f t="shared" ref="A131:A194" si="2">LEN(B131)</f>
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
         <v>149</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>8</v>
       </c>
-      <c r="M131" t="s">
-        <v>18</v>
-      </c>
       <c r="N131" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O131" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P131" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
         <v>150</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>9</v>
       </c>
-      <c r="M132" t="s">
-        <v>18</v>
-      </c>
       <c r="N132" t="s">
+        <v>18</v>
+      </c>
+      <c r="O132" t="s">
         <v>58</v>
       </c>
-      <c r="O132" t="s">
-        <v>19</v>
-      </c>
       <c r="P132" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
         <v>151</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>10</v>
       </c>
-      <c r="M133" t="s">
-        <v>18</v>
-      </c>
       <c r="N133" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O133" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P133" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
         <v>152</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>11</v>
       </c>
-      <c r="M134" t="s">
-        <v>18</v>
-      </c>
       <c r="N134" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O134" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P134" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
         <v>153</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>12</v>
       </c>
-      <c r="M135" t="s">
-        <v>18</v>
-      </c>
       <c r="N135" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O135" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P135" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
         <v>154</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>13</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>8</v>
       </c>
-      <c r="N136" t="s">
-        <v>34</v>
-      </c>
       <c r="O136" t="s">
         <v>34</v>
       </c>
       <c r="P136" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
         <v>155</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>1</v>
       </c>
-      <c r="M137" t="s">
+      <c r="N137" t="s">
         <v>8</v>
       </c>
-      <c r="N137" t="s">
-        <v>34</v>
-      </c>
       <c r="O137" t="s">
         <v>34</v>
       </c>
       <c r="P137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
         <v>156</v>
       </c>
-      <c r="K138">
+      <c r="L138">
         <v>1</v>
       </c>
-      <c r="M138" t="s">
-        <v>18</v>
-      </c>
       <c r="N138" t="s">
+        <v>18</v>
+      </c>
+      <c r="O138" t="s">
         <v>31</v>
       </c>
-      <c r="O138" t="s">
+      <c r="P138" t="s">
         <v>27</v>
       </c>
-      <c r="P138" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="Q138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
         <v>157</v>
       </c>
-      <c r="K139">
+      <c r="L139">
         <v>2</v>
       </c>
-      <c r="M139" t="s">
-        <v>18</v>
-      </c>
       <c r="N139" t="s">
+        <v>18</v>
+      </c>
+      <c r="O139" t="s">
         <v>89</v>
       </c>
-      <c r="O139" t="s">
-        <v>19</v>
-      </c>
       <c r="P139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q139" t="s">
+        <v>20</v>
+      </c>
+      <c r="R139" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B140" t="s">
         <v>158</v>
       </c>
-      <c r="K140">
+      <c r="L140">
         <v>3</v>
       </c>
-      <c r="M140" t="s">
-        <v>18</v>
-      </c>
       <c r="N140" t="s">
+        <v>18</v>
+      </c>
+      <c r="O140" t="s">
         <v>31</v>
       </c>
-      <c r="O140" t="s">
-        <v>19</v>
-      </c>
       <c r="P140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q140" t="s">
+        <v>20</v>
+      </c>
+      <c r="R140" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
         <v>159</v>
       </c>
-      <c r="K141">
+      <c r="L141">
         <v>4</v>
       </c>
-      <c r="M141" t="s">
-        <v>18</v>
-      </c>
       <c r="N141" t="s">
+        <v>18</v>
+      </c>
+      <c r="O141" t="s">
         <v>89</v>
       </c>
-      <c r="O141" t="s">
-        <v>19</v>
-      </c>
       <c r="P141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q141" t="s">
+        <v>20</v>
+      </c>
+      <c r="R141" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
         <v>160</v>
       </c>
-      <c r="K142">
+      <c r="L142">
         <v>5</v>
       </c>
-      <c r="M142" t="s">
-        <v>18</v>
-      </c>
       <c r="N142" t="s">
+        <v>18</v>
+      </c>
+      <c r="O142" t="s">
         <v>31</v>
       </c>
-      <c r="O142" t="s">
-        <v>19</v>
-      </c>
       <c r="P142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q142" t="s">
+        <v>20</v>
+      </c>
+      <c r="R142" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
         <v>161</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>14</v>
       </c>
-      <c r="M143" t="s">
-        <v>18</v>
-      </c>
       <c r="N143" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O143" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P143" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
         <v>162</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>15</v>
       </c>
-      <c r="M144" t="s">
-        <v>18</v>
-      </c>
       <c r="N144" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O144" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P144" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="1">
+      <c r="I145" s="1">
         <v>7</v>
       </c>
-      <c r="M145" t="s">
+      <c r="N145" t="s">
         <v>8</v>
       </c>
-      <c r="N145" t="s">
-        <v>34</v>
-      </c>
       <c r="O145" t="s">
         <v>34</v>
       </c>
       <c r="P145" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
         <v>163</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>1</v>
       </c>
-      <c r="M146" t="s">
-        <v>18</v>
-      </c>
       <c r="N146" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O146" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P146" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
         <v>164</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>2</v>
       </c>
-      <c r="M147" t="s">
-        <v>18</v>
-      </c>
       <c r="N147" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O147" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P147" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
         <v>165</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>3</v>
       </c>
-      <c r="M148" t="s">
-        <v>18</v>
-      </c>
       <c r="N148" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O148" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P148" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
         <v>166</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>4</v>
       </c>
-      <c r="M149" t="s">
-        <v>18</v>
-      </c>
       <c r="N149" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O149" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P149" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
         <v>167</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>5</v>
       </c>
-      <c r="M150" t="s">
+      <c r="N150" t="s">
         <v>8</v>
       </c>
-      <c r="N150" t="s">
-        <v>34</v>
-      </c>
       <c r="O150" t="s">
         <v>34</v>
       </c>
       <c r="P150" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
         <v>168</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>1</v>
       </c>
-      <c r="M151" t="s">
+      <c r="N151" t="s">
         <v>8</v>
       </c>
-      <c r="N151" t="s">
-        <v>34</v>
-      </c>
       <c r="O151" t="s">
         <v>34</v>
       </c>
       <c r="P151" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
         <v>169</v>
       </c>
-      <c r="K152">
+      <c r="L152">
         <v>1</v>
       </c>
-      <c r="M152" t="s">
-        <v>18</v>
-      </c>
       <c r="N152" t="s">
+        <v>18</v>
+      </c>
+      <c r="O152" t="s">
         <v>89</v>
       </c>
-      <c r="O152" t="s">
-        <v>19</v>
-      </c>
       <c r="P152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q152" t="s">
+        <v>20</v>
+      </c>
+      <c r="R152" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
         <v>170</v>
       </c>
-      <c r="K153">
+      <c r="L153">
         <v>2</v>
       </c>
-      <c r="M153" t="s">
-        <v>18</v>
-      </c>
       <c r="N153" t="s">
+        <v>18</v>
+      </c>
+      <c r="O153" t="s">
         <v>31</v>
       </c>
-      <c r="O153" t="s">
-        <v>19</v>
-      </c>
       <c r="P153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q153" t="s">
+        <v>20</v>
+      </c>
+      <c r="R153" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
         <v>14</v>
       </c>
-      <c r="H154" s="1">
+      <c r="I154" s="1">
         <v>8</v>
       </c>
-      <c r="M154" t="s">
+      <c r="N154" t="s">
         <v>8</v>
       </c>
-      <c r="N154" t="s">
-        <v>34</v>
-      </c>
       <c r="O154" t="s">
         <v>34</v>
       </c>
       <c r="P154" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
         <v>171</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>1</v>
       </c>
-      <c r="M155" t="s">
-        <v>18</v>
-      </c>
       <c r="N155" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O155" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P155" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
         <v>172</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>2</v>
       </c>
-      <c r="M156" t="s">
-        <v>18</v>
-      </c>
       <c r="N156" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O156" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P156" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
         <v>173</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>3</v>
       </c>
-      <c r="M157" t="s">
-        <v>18</v>
-      </c>
       <c r="N157" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O157" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
         <v>174</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>4</v>
       </c>
-      <c r="M158" t="s">
-        <v>18</v>
-      </c>
       <c r="N158" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O158" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P158" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B159" t="s">
         <v>175</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>5</v>
       </c>
-      <c r="M159" t="s">
+      <c r="N159" t="s">
         <v>8</v>
       </c>
-      <c r="N159" t="s">
-        <v>34</v>
-      </c>
       <c r="O159" t="s">
         <v>34</v>
       </c>
       <c r="P159" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B160" t="s">
         <v>176</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <v>1</v>
       </c>
-      <c r="M160" t="s">
+      <c r="N160" t="s">
         <v>8</v>
       </c>
-      <c r="N160" t="s">
-        <v>34</v>
-      </c>
       <c r="O160" t="s">
         <v>34</v>
       </c>
       <c r="P160" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B161" t="s">
         <v>177</v>
       </c>
-      <c r="K161">
+      <c r="L161">
         <v>1</v>
       </c>
-      <c r="M161" t="s">
-        <v>18</v>
-      </c>
       <c r="N161" t="s">
+        <v>18</v>
+      </c>
+      <c r="O161" t="s">
         <v>31</v>
       </c>
-      <c r="O161" t="s">
-        <v>19</v>
-      </c>
       <c r="P161" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
         <v>178</v>
       </c>
-      <c r="K162">
+      <c r="L162">
         <v>2</v>
       </c>
-      <c r="M162" t="s">
-        <v>18</v>
-      </c>
       <c r="N162" t="s">
+        <v>18</v>
+      </c>
+      <c r="O162" t="s">
         <v>89</v>
       </c>
-      <c r="O162" t="s">
-        <v>19</v>
-      </c>
       <c r="P162" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>20</v>
+      </c>
+      <c r="R162" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="N163" t="s">
+        <v>18</v>
+      </c>
+      <c r="O163" t="s">
+        <v>31</v>
+      </c>
+      <c r="P163" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B164" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="L164">
+        <v>4</v>
+      </c>
+      <c r="N164" t="s">
+        <v>18</v>
+      </c>
+      <c r="O164" t="s">
+        <v>59</v>
+      </c>
+      <c r="P164" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>181</v>
+      </c>
+      <c r="L165">
+        <v>5</v>
+      </c>
+      <c r="N165" t="s">
+        <v>18</v>
+      </c>
+      <c r="O165" t="s">
+        <v>59</v>
+      </c>
+      <c r="P165" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H167" s="1">
+      <c r="B166" t="s">
+        <v>182</v>
+      </c>
+      <c r="L166">
+        <v>6</v>
+      </c>
+      <c r="N166" t="s">
+        <v>18</v>
+      </c>
+      <c r="O166" t="s">
+        <v>59</v>
+      </c>
+      <c r="P166" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B167" t="s">
+        <v>183</v>
+      </c>
+      <c r="L167">
+        <v>7</v>
+      </c>
+      <c r="N167" t="s">
+        <v>18</v>
+      </c>
+      <c r="O167" t="s">
+        <v>59</v>
+      </c>
+      <c r="P167" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B168" t="s">
+        <v>184</v>
+      </c>
+      <c r="L168">
+        <v>8</v>
+      </c>
+      <c r="N168" t="s">
+        <v>18</v>
+      </c>
+      <c r="O168" t="s">
+        <v>59</v>
+      </c>
+      <c r="P168" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B169" t="s">
+        <v>191</v>
+      </c>
+      <c r="L169">
+        <v>9</v>
+      </c>
+      <c r="N169" t="s">
+        <v>18</v>
+      </c>
+      <c r="O169" t="s">
+        <v>59</v>
+      </c>
+      <c r="P169" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B170" t="s">
+        <v>185</v>
+      </c>
+      <c r="L170">
         <v>10</v>
       </c>
-      <c r="M167" t="s">
+      <c r="N170" t="s">
+        <v>18</v>
+      </c>
+      <c r="O170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P170" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>186</v>
+      </c>
+      <c r="L171">
+        <v>11</v>
+      </c>
+      <c r="N171" t="s">
+        <v>18</v>
+      </c>
+      <c r="O171" t="s">
+        <v>59</v>
+      </c>
+      <c r="P171" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B172" t="s">
+        <v>187</v>
+      </c>
+      <c r="L172">
+        <v>12</v>
+      </c>
+      <c r="N172" t="s">
+        <v>18</v>
+      </c>
+      <c r="O172" t="s">
+        <v>31</v>
+      </c>
+      <c r="P172" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>188</v>
+      </c>
+      <c r="L173">
+        <v>13</v>
+      </c>
+      <c r="N173" t="s">
+        <v>18</v>
+      </c>
+      <c r="O173" t="s">
+        <v>31</v>
+      </c>
+      <c r="P173" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>189</v>
+      </c>
+      <c r="L174">
+        <v>14</v>
+      </c>
+      <c r="N174" t="s">
+        <v>18</v>
+      </c>
+      <c r="O174" t="s">
+        <v>31</v>
+      </c>
+      <c r="P174" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>190</v>
+      </c>
+      <c r="L175">
+        <v>15</v>
+      </c>
+      <c r="N175" t="s">
+        <v>18</v>
+      </c>
+      <c r="O175" t="s">
+        <v>31</v>
+      </c>
+      <c r="P175" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>192</v>
+      </c>
+      <c r="J176">
+        <v>6</v>
+      </c>
+      <c r="N176" t="s">
+        <v>18</v>
+      </c>
+      <c r="O176" t="s">
+        <v>31</v>
+      </c>
+      <c r="P176" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" s="1">
+        <v>10</v>
+      </c>
+      <c r="N177" t="s">
         <v>8</v>
       </c>
-      <c r="N167" t="s">
-        <v>34</v>
-      </c>
-      <c r="O167" t="s">
-        <v>34</v>
-      </c>
-      <c r="P167" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="O177" t="s">
+        <v>34</v>
+      </c>
+      <c r="P177" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
         <v>16</v>
       </c>
-      <c r="H168" s="1">
+      <c r="I178" s="1">
         <v>11</v>
       </c>
-      <c r="M168" t="s">
+      <c r="N178" t="s">
         <v>8</v>
       </c>
-      <c r="N168" t="s">
-        <v>34</v>
-      </c>
-      <c r="O168" t="s">
-        <v>34</v>
-      </c>
-      <c r="P168" t="s">
+      <c r="O178" t="s">
+        <v>34</v>
+      </c>
+      <c r="P178" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>193</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="N179" t="s">
+        <v>18</v>
+      </c>
+      <c r="O179" t="s">
+        <v>59</v>
+      </c>
+      <c r="P179" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>194</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+      <c r="N180" t="s">
+        <v>18</v>
+      </c>
+      <c r="O180" t="s">
+        <v>59</v>
+      </c>
+      <c r="P180" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B181" t="s">
+        <v>195</v>
+      </c>
+      <c r="J181">
+        <v>3</v>
+      </c>
+      <c r="N181" t="s">
+        <v>18</v>
+      </c>
+      <c r="O181" t="s">
+        <v>59</v>
+      </c>
+      <c r="P181" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>196</v>
+      </c>
+      <c r="J182">
+        <v>4</v>
+      </c>
+      <c r="N182" t="s">
+        <v>18</v>
+      </c>
+      <c r="O182" t="s">
+        <v>59</v>
+      </c>
+      <c r="P182" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B183" t="s">
+        <v>197</v>
+      </c>
+      <c r="J183">
+        <v>5</v>
+      </c>
+      <c r="N183" t="s">
+        <v>18</v>
+      </c>
+      <c r="O183" t="s">
+        <v>59</v>
+      </c>
+      <c r="P183" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B184" t="s">
+        <v>198</v>
+      </c>
+      <c r="J184">
+        <v>6</v>
+      </c>
+      <c r="N184" t="s">
+        <v>18</v>
+      </c>
+      <c r="O184" t="s">
+        <v>59</v>
+      </c>
+      <c r="P184" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>199</v>
+      </c>
+      <c r="J185">
+        <v>8</v>
+      </c>
+      <c r="N185" t="s">
+        <v>18</v>
+      </c>
+      <c r="O185" t="s">
+        <v>59</v>
+      </c>
+      <c r="P185" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B186" t="s">
+        <v>200</v>
+      </c>
+      <c r="J186">
+        <v>9</v>
+      </c>
+      <c r="N186" t="s">
+        <v>18</v>
+      </c>
+      <c r="O186" t="s">
+        <v>59</v>
+      </c>
+      <c r="P186" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B187" t="s">
+        <v>201</v>
+      </c>
+      <c r="J187">
+        <v>10</v>
+      </c>
+      <c r="N187" t="s">
+        <v>18</v>
+      </c>
+      <c r="O187" t="s">
+        <v>59</v>
+      </c>
+      <c r="P187" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B188" t="s">
+        <v>202</v>
+      </c>
+      <c r="J188">
+        <v>11</v>
+      </c>
+      <c r="N188" t="s">
+        <v>18</v>
+      </c>
+      <c r="O188" t="s">
+        <v>59</v>
+      </c>
+      <c r="P188" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>203</v>
+      </c>
+      <c r="J189">
+        <v>12</v>
+      </c>
+      <c r="N189" t="s">
+        <v>18</v>
+      </c>
+      <c r="O189" t="s">
+        <v>59</v>
+      </c>
+      <c r="P189" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B190" t="s">
+        <v>204</v>
+      </c>
+      <c r="J190">
+        <v>13</v>
+      </c>
+      <c r="N190" t="s">
+        <v>18</v>
+      </c>
+      <c r="O190" t="s">
+        <v>59</v>
+      </c>
+      <c r="P190" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B191" t="s">
+        <v>205</v>
+      </c>
+      <c r="J191">
+        <v>14</v>
+      </c>
+      <c r="N191" t="s">
+        <v>18</v>
+      </c>
+      <c r="O191" t="s">
+        <v>59</v>
+      </c>
+      <c r="P191" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>206</v>
+      </c>
+      <c r="J192">
+        <v>15</v>
+      </c>
+      <c r="N192" t="s">
+        <v>18</v>
+      </c>
+      <c r="O192" t="s">
+        <v>59</v>
+      </c>
+      <c r="P192" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B193" t="s">
+        <v>207</v>
+      </c>
+      <c r="J193">
+        <v>16</v>
+      </c>
+      <c r="N193" t="s">
+        <v>18</v>
+      </c>
+      <c r="O193" t="s">
+        <v>59</v>
+      </c>
+      <c r="P193" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B194" t="s">
+        <v>208</v>
+      </c>
+      <c r="J194">
+        <v>17</v>
+      </c>
+      <c r="N194" t="s">
+        <v>18</v>
+      </c>
+      <c r="O194" t="s">
+        <v>59</v>
+      </c>
+      <c r="P194" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <f t="shared" ref="A195:A257" si="3">LEN(B195)</f>
+        <v>18</v>
+      </c>
+      <c r="B195" t="s">
+        <v>209</v>
+      </c>
+      <c r="J195">
+        <v>18</v>
+      </c>
+      <c r="N195" t="s">
+        <v>18</v>
+      </c>
+      <c r="O195" t="s">
+        <v>59</v>
+      </c>
+      <c r="P195" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
+        <v>210</v>
+      </c>
+      <c r="J196">
+        <v>19</v>
+      </c>
+      <c r="N196" t="s">
+        <v>18</v>
+      </c>
+      <c r="O196" t="s">
+        <v>59</v>
+      </c>
+      <c r="P196" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B197" t="s">
+        <v>211</v>
+      </c>
+      <c r="J197">
+        <v>20</v>
+      </c>
+      <c r="N197" t="s">
+        <v>18</v>
+      </c>
+      <c r="O197" t="s">
+        <v>59</v>
+      </c>
+      <c r="P197" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>212</v>
+      </c>
+      <c r="J198">
+        <v>21</v>
+      </c>
+      <c r="N198" t="s">
+        <v>18</v>
+      </c>
+      <c r="O198" t="s">
+        <v>59</v>
+      </c>
+      <c r="P198" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>213</v>
+      </c>
+      <c r="J199">
+        <v>22</v>
+      </c>
+      <c r="N199" t="s">
+        <v>18</v>
+      </c>
+      <c r="O199" t="s">
+        <v>59</v>
+      </c>
+      <c r="P199" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
+        <v>214</v>
+      </c>
+      <c r="J200">
+        <v>24</v>
+      </c>
+      <c r="N200" t="s">
+        <v>18</v>
+      </c>
+      <c r="O200" t="s">
+        <v>59</v>
+      </c>
+      <c r="P200" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>215</v>
+      </c>
+      <c r="J201">
+        <v>25</v>
+      </c>
+      <c r="N201" t="s">
+        <v>18</v>
+      </c>
+      <c r="O201" t="s">
+        <v>59</v>
+      </c>
+      <c r="P201" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B202" t="s">
+        <v>216</v>
+      </c>
+      <c r="J202">
+        <v>26</v>
+      </c>
+      <c r="N202" t="s">
+        <v>18</v>
+      </c>
+      <c r="O202" t="s">
+        <v>59</v>
+      </c>
+      <c r="P202" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>217</v>
+      </c>
+      <c r="J203">
+        <v>27</v>
+      </c>
+      <c r="N203" t="s">
+        <v>18</v>
+      </c>
+      <c r="O203" t="s">
+        <v>59</v>
+      </c>
+      <c r="P203" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B204" t="s">
+        <v>218</v>
+      </c>
+      <c r="J204">
+        <v>28</v>
+      </c>
+      <c r="N204" t="s">
+        <v>18</v>
+      </c>
+      <c r="O204" t="s">
+        <v>59</v>
+      </c>
+      <c r="P204" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B205" t="s">
+        <v>219</v>
+      </c>
+      <c r="J205">
+        <v>29</v>
+      </c>
+      <c r="N205" t="s">
+        <v>18</v>
+      </c>
+      <c r="O205" t="s">
+        <v>59</v>
+      </c>
+      <c r="P205" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B206" t="s">
+        <v>220</v>
+      </c>
+      <c r="J206">
+        <v>30</v>
+      </c>
+      <c r="N206" t="s">
+        <v>18</v>
+      </c>
+      <c r="O206" t="s">
+        <v>31</v>
+      </c>
+      <c r="P206" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B207" t="s">
+        <v>221</v>
+      </c>
+      <c r="J207">
+        <v>31</v>
+      </c>
+      <c r="N207" t="s">
+        <v>18</v>
+      </c>
+      <c r="O207" t="s">
+        <v>59</v>
+      </c>
+      <c r="P207" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B208" t="s">
+        <v>222</v>
+      </c>
+      <c r="J208">
+        <v>32</v>
+      </c>
+      <c r="N208" t="s">
+        <v>18</v>
+      </c>
+      <c r="O208" t="s">
+        <v>59</v>
+      </c>
+      <c r="P208" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>223</v>
+      </c>
+      <c r="I209" s="1">
+        <v>25</v>
+      </c>
+      <c r="N209" t="s">
+        <v>8</v>
+      </c>
+      <c r="O209" t="s">
+        <v>34</v>
+      </c>
+      <c r="P209" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>224</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="N210" t="s">
+        <v>8</v>
+      </c>
+      <c r="O210" t="s">
+        <v>34</v>
+      </c>
+      <c r="P210" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B211" t="s">
+        <v>231</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="N211" t="s">
+        <v>18</v>
+      </c>
+      <c r="O211" t="s">
+        <v>25</v>
+      </c>
+      <c r="P211" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B212" t="s">
+        <v>232</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="N212" t="s">
+        <v>18</v>
+      </c>
+      <c r="O212" t="s">
+        <v>22</v>
+      </c>
+      <c r="P212" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B213" t="s">
+        <v>233</v>
+      </c>
+      <c r="K213">
+        <v>3</v>
+      </c>
+      <c r="N213" t="s">
+        <v>18</v>
+      </c>
+      <c r="O213" t="s">
+        <v>31</v>
+      </c>
+      <c r="P213" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B214" t="s">
+        <v>234</v>
+      </c>
+      <c r="K214">
+        <v>4</v>
+      </c>
+      <c r="N214" t="s">
+        <v>18</v>
+      </c>
+      <c r="O214" t="s">
+        <v>22</v>
+      </c>
+      <c r="P214" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B215" t="s">
+        <v>235</v>
+      </c>
+      <c r="K215">
+        <v>5</v>
+      </c>
+      <c r="N215" t="s">
+        <v>18</v>
+      </c>
+      <c r="O215" t="s">
+        <v>58</v>
+      </c>
+      <c r="P215" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B216" t="s">
+        <v>236</v>
+      </c>
+      <c r="K216">
+        <v>6</v>
+      </c>
+      <c r="N216" t="s">
+        <v>18</v>
+      </c>
+      <c r="O216" t="s">
+        <v>58</v>
+      </c>
+      <c r="P216" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B217" t="s">
+        <v>237</v>
+      </c>
+      <c r="K217">
+        <v>7</v>
+      </c>
+      <c r="N217" t="s">
+        <v>18</v>
+      </c>
+      <c r="O217" t="s">
+        <v>31</v>
+      </c>
+      <c r="P217" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B218" t="s">
+        <v>225</v>
+      </c>
+      <c r="J218">
+        <v>2</v>
+      </c>
+      <c r="N218" t="s">
+        <v>8</v>
+      </c>
+      <c r="O218" t="s">
+        <v>34</v>
+      </c>
+      <c r="P218" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B219" t="s">
+        <v>239</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="N219" t="s">
+        <v>18</v>
+      </c>
+      <c r="O219" t="s">
+        <v>31</v>
+      </c>
+      <c r="P219" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>240</v>
+      </c>
+      <c r="K220">
+        <v>3</v>
+      </c>
+      <c r="N220" t="s">
+        <v>8</v>
+      </c>
+      <c r="O220" t="s">
+        <v>34</v>
+      </c>
+      <c r="P220" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>241</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="N221" t="s">
+        <v>8</v>
+      </c>
+      <c r="O221" t="s">
+        <v>34</v>
+      </c>
+      <c r="P221" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>242</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222" t="s">
+        <v>18</v>
+      </c>
+      <c r="O222" t="s">
+        <v>31</v>
+      </c>
+      <c r="P222" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>238</v>
+      </c>
+      <c r="R222" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B223" t="s">
+        <v>243</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223" t="s">
+        <v>18</v>
+      </c>
+      <c r="O223" t="s">
+        <v>31</v>
+      </c>
+      <c r="P223" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B224" t="s">
+        <v>244</v>
+      </c>
+      <c r="M224">
+        <v>3</v>
+      </c>
+      <c r="N224" t="s">
+        <v>18</v>
+      </c>
+      <c r="O224" t="s">
+        <v>22</v>
+      </c>
+      <c r="P224" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B225" t="s">
+        <v>245</v>
+      </c>
+      <c r="M225">
+        <v>4</v>
+      </c>
+      <c r="N225" t="s">
+        <v>18</v>
+      </c>
+      <c r="O225" t="s">
+        <v>31</v>
+      </c>
+      <c r="P225" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B226" t="s">
+        <v>246</v>
+      </c>
+      <c r="M226">
+        <v>5</v>
+      </c>
+      <c r="N226" t="s">
+        <v>18</v>
+      </c>
+      <c r="O226" t="s">
+        <v>31</v>
+      </c>
+      <c r="P226" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B227" t="s">
+        <v>247</v>
+      </c>
+      <c r="M227">
+        <v>6</v>
+      </c>
+      <c r="N227" t="s">
+        <v>18</v>
+      </c>
+      <c r="O227" t="s">
+        <v>31</v>
+      </c>
+      <c r="P227" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B228" t="s">
+        <v>248</v>
+      </c>
+      <c r="M228">
+        <v>7</v>
+      </c>
+      <c r="N228" t="s">
+        <v>18</v>
+      </c>
+      <c r="O228" t="s">
+        <v>59</v>
+      </c>
+      <c r="P228" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B229" t="s">
+        <v>226</v>
+      </c>
+      <c r="J229">
+        <v>3</v>
+      </c>
+      <c r="N229" t="s">
+        <v>8</v>
+      </c>
+      <c r="O229" t="s">
+        <v>34</v>
+      </c>
+      <c r="P229" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B230" t="s">
+        <v>249</v>
+      </c>
+      <c r="K230">
+        <v>2</v>
+      </c>
+      <c r="N230" t="s">
+        <v>8</v>
+      </c>
+      <c r="O230" t="s">
+        <v>34</v>
+      </c>
+      <c r="P230" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>250</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="N231" t="s">
+        <v>8</v>
+      </c>
+      <c r="O231" t="s">
+        <v>34</v>
+      </c>
+      <c r="P231" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B232" t="s">
+        <v>251</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232" t="s">
+        <v>18</v>
+      </c>
+      <c r="O232" t="s">
+        <v>31</v>
+      </c>
+      <c r="P232" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>238</v>
+      </c>
+      <c r="R232" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B233" t="s">
+        <v>252</v>
+      </c>
+      <c r="M233">
+        <v>2</v>
+      </c>
+      <c r="N233" t="s">
+        <v>18</v>
+      </c>
+      <c r="O233" t="s">
+        <v>31</v>
+      </c>
+      <c r="P233" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B254" t="s">
+        <v>227</v>
+      </c>
+      <c r="J254">
+        <v>4</v>
+      </c>
+      <c r="N254" t="s">
+        <v>8</v>
+      </c>
+      <c r="O254" t="s">
+        <v>34</v>
+      </c>
+      <c r="P254" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B255" t="s">
+        <v>228</v>
+      </c>
+      <c r="J255">
+        <v>5</v>
+      </c>
+      <c r="N255" t="s">
+        <v>8</v>
+      </c>
+      <c r="O255" t="s">
+        <v>34</v>
+      </c>
+      <c r="P255" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B256" t="s">
+        <v>229</v>
+      </c>
+      <c r="J256">
+        <v>6</v>
+      </c>
+      <c r="N256" t="s">
+        <v>8</v>
+      </c>
+      <c r="O256" t="s">
+        <v>34</v>
+      </c>
+      <c r="P256" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B257" t="s">
+        <v>230</v>
+      </c>
+      <c r="J257">
+        <v>7</v>
+      </c>
+      <c r="N257" t="s">
+        <v>8</v>
+      </c>
+      <c r="O257" t="s">
+        <v>34</v>
+      </c>
+      <c r="P257" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q257" t="s">
         <v>20</v>
       </c>
     </row>
